--- a/stat/1.xlsx
+++ b/stat/1.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Лаб1" sheetId="1" r:id="rId1"/>
-    <sheet name="Метод Делфи" sheetId="2" r:id="rId2"/>
+    <sheet name="1" sheetId="1" r:id="rId1"/>
+    <sheet name="2" sheetId="3" r:id="rId2"/>
+    <sheet name="Метод Делфи" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="72">
   <si>
     <t>Номер региона</t>
   </si>
@@ -102,14 +103,161 @@
   </si>
   <si>
     <t>A</t>
+  </si>
+  <si>
+    <t>t</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>D(a)</t>
+  </si>
+  <si>
+    <t>(Y-Y~)^2</t>
+  </si>
+  <si>
+    <t>D(b)</t>
+  </si>
+  <si>
+    <t>ta</t>
+  </si>
+  <si>
+    <t>tb</t>
+  </si>
+  <si>
+    <t>s^2</t>
+  </si>
+  <si>
+    <t>(Xp-Xcp)^2</t>
+  </si>
+  <si>
+    <t>Xp</t>
+  </si>
+  <si>
+    <t>mu</t>
+  </si>
+  <si>
+    <t>Yp</t>
+  </si>
+  <si>
+    <t>lb</t>
+  </si>
+  <si>
+    <t>ub</t>
+  </si>
+  <si>
+    <t>X1</t>
+  </si>
+  <si>
+    <t>X2</t>
+  </si>
+  <si>
+    <t>x1</t>
+  </si>
+  <si>
+    <t>x2</t>
+  </si>
+  <si>
+    <t>k</t>
+  </si>
+  <si>
+    <t>ошибки</t>
+  </si>
+  <si>
+    <t>F stat</t>
+  </si>
+  <si>
+    <t>Корелляция</t>
+  </si>
+  <si>
+    <t>Tcrit</t>
+  </si>
+  <si>
+    <t>Tfact</t>
+  </si>
+  <si>
+    <t>beta1</t>
+  </si>
+  <si>
+    <t>beta2</t>
+  </si>
+  <si>
+    <t>ty</t>
+  </si>
+  <si>
+    <t>больше влияет на Y</t>
+  </si>
+  <si>
+    <t>CP</t>
+  </si>
+  <si>
+    <t>SUM</t>
+  </si>
+  <si>
+    <t>Э1</t>
+  </si>
+  <si>
+    <t>Э2</t>
+  </si>
+  <si>
+    <t>Эластичность</t>
+  </si>
+  <si>
+    <t>Частная корреляция</t>
+  </si>
+  <si>
+    <t>Ryx1x2</t>
+  </si>
+  <si>
+    <t>Ryx2x1</t>
+  </si>
+  <si>
+    <t>Rx1x2y</t>
+  </si>
+  <si>
+    <t>Линейный коэффициент множественной корреляции</t>
+  </si>
+  <si>
+    <t>Детерминация</t>
+  </si>
+  <si>
+    <t>Фишер</t>
+  </si>
+  <si>
+    <t>Ffact</t>
+  </si>
+  <si>
+    <t>Fx1</t>
+  </si>
+  <si>
+    <t>Fx2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -125,7 +273,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -133,16 +281,45 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Финансовый" xfId="1" builtinId="3"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -444,10 +621,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M24"/>
+  <dimension ref="A1:N37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+    <sheetView topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -464,7 +641,7 @@
     <col min="12" max="12" width="9.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -473,7 +650,7 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -510,8 +687,11 @@
       <c r="L3" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="N3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -562,8 +742,12 @@
         <f>ABS((C4-F4)/C4)</f>
         <v>5.3978237832301344E-2</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="N4" s="1">
+        <f>(C4-F4)^2</f>
+        <v>7090.659028111716</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -614,8 +798,12 @@
         <f t="shared" ref="M5:M15" si="9">ABS((C5-F5)/C5)</f>
         <v>8.3445546170483314E-3</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="N5" s="1">
+        <f t="shared" ref="N5:N15" si="10">(C5-F5)^2</f>
+        <v>110.54711507325862</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -666,8 +854,12 @@
         <f t="shared" si="9"/>
         <v>4.6637562556090346E-3</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="N6" s="1">
+        <f t="shared" si="10"/>
+        <v>36.758551875827763</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -718,8 +910,12 @@
         <f t="shared" si="9"/>
         <v>5.2572504435352607E-2</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="N7" s="1">
+        <f t="shared" si="10"/>
+        <v>5573.0638840610645</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>5</v>
       </c>
@@ -770,8 +966,12 @@
         <f t="shared" si="9"/>
         <v>2.3932394582358137E-2</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="N8" s="1">
+        <f t="shared" si="10"/>
+        <v>1028.4469769562722</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>6</v>
       </c>
@@ -822,8 +1022,12 @@
         <f t="shared" si="9"/>
         <v>2.7933611622029276E-2</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="N9" s="1">
+        <f t="shared" si="10"/>
+        <v>1663.2590407264865</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>7</v>
       </c>
@@ -874,8 +1078,12 @@
         <f t="shared" si="9"/>
         <v>4.8184542370818761E-2</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="N10" s="1">
+        <f t="shared" si="10"/>
+        <v>3923.757708690036</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>8</v>
       </c>
@@ -926,8 +1134,12 @@
         <f t="shared" si="9"/>
         <v>1.3546358910000739E-2</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="N11" s="1">
+        <f t="shared" si="10"/>
+        <v>295.97334308205967</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>9</v>
       </c>
@@ -978,8 +1190,12 @@
         <f t="shared" si="9"/>
         <v>0.10233466684920113</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="N12" s="1">
+        <f t="shared" si="10"/>
+        <v>25485.593797643771</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>10</v>
       </c>
@@ -1030,8 +1246,12 @@
         <f t="shared" si="9"/>
         <v>5.3938349568169563E-2</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="N13" s="1">
+        <f t="shared" si="10"/>
+        <v>6899.8039161938186</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>11</v>
       </c>
@@ -1082,8 +1302,12 @@
         <f t="shared" si="9"/>
         <v>7.830987610802051E-2</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="N14" s="1">
+        <f t="shared" si="10"/>
+        <v>8110.1475305307822</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>12</v>
       </c>
@@ -1134,30 +1358,42 @@
         <f t="shared" si="9"/>
         <v>6.1629041826405051E-2</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="17" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="N15" s="1">
+        <f t="shared" si="10"/>
+        <v>9125.0284584489818</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="17" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B17" s="1">
         <f>AVERAGE(B4:B15)</f>
         <v>881.66666666666663</v>
       </c>
       <c r="C17" s="1">
-        <f t="shared" ref="C17:E17" si="10">AVERAGE(C4:C15)</f>
+        <f t="shared" ref="C17:E17" si="11">AVERAGE(C4:C15)</f>
         <v>1392.5</v>
       </c>
       <c r="D17" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1240966.6666666667</v>
       </c>
       <c r="E17" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>791383.33333333337</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
+      <c r="G18" s="1">
+        <f t="shared" ref="G18:H18" si="12">SUM(G4:G15)</f>
+        <v>4.5474735088646412E-13</v>
+      </c>
+      <c r="H18" s="1">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
       <c r="I18" s="1">
         <f>SUM(I4:I15)</f>
         <v>168566.66666666666</v>
@@ -1178,8 +1414,12 @@
         <f>SUM(M4:M15)</f>
         <v>0.52936789497731451</v>
       </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N18" s="1">
+        <f>SUM(N4:N15)</f>
+        <v>69343.03935139408</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -1187,11 +1427,14 @@
         <f>E17-B17^2</f>
         <v>14047.222222222365</v>
       </c>
-      <c r="C19" s="1"/>
+      <c r="C19" s="1">
+        <f>SQRT(B19)</f>
+        <v>118.52097798374076</v>
+      </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -1203,7 +1446,7 @@
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -1215,7 +1458,7 @@
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>25</v>
       </c>
@@ -1227,7 +1470,7 @@
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>27</v>
       </c>
@@ -1236,13 +1479,130 @@
         <v>0.6836900930487233</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>28</v>
       </c>
       <c r="B24" s="1">
         <f>1/A15*M18</f>
         <v>4.4113991248109538E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25" s="1">
+        <f>B22*SQRT(A15-2)/SQRT(1-B22^2)</f>
+        <v>4.6491466573250264</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>30</v>
+      </c>
+      <c r="B26" s="1">
+        <f>B23*(A15-2)/(1-B23)</f>
+        <v>21.614564641316676</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>31</v>
+      </c>
+      <c r="B27" s="1">
+        <f>(N18/(A15-2))*(B17/(A15*I18))</f>
+        <v>3.022416766930943</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>33</v>
+      </c>
+      <c r="B28" s="1">
+        <f>N18/((A15-2)*I18)</f>
+        <v>4.1136863368436277E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>34</v>
+      </c>
+      <c r="B29" s="1">
+        <f>B21/SQRT(B27)</f>
+        <v>322.76611444755792</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>35</v>
+      </c>
+      <c r="B30" s="1">
+        <f>B20/SQRT(B28)</f>
+        <v>4.6491466573250344</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>36</v>
+      </c>
+      <c r="B31" s="1">
+        <f>N18/(A15-2)</f>
+        <v>6934.3039351394082</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>38</v>
+      </c>
+      <c r="B32" s="1">
+        <f>1.07*B17</f>
+        <v>943.38333333333333</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>37</v>
+      </c>
+      <c r="B33" s="1">
+        <f>(B32-B17)^2</f>
+        <v>3808.946944444448</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>39</v>
+      </c>
+      <c r="B34" s="1">
+        <f>SQRT(B31)*SQRT(1+1/A15+B33/I18)</f>
+        <v>87.571974549123084</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>40</v>
+      </c>
+      <c r="B35" s="1">
+        <f>B21+B32*B20</f>
+        <v>1450.6957534111134</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>41</v>
+      </c>
+      <c r="B36" s="1">
+        <f>B35-2.23*B34</f>
+        <v>1255.4102501665689</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>42</v>
+      </c>
+      <c r="B37" s="1">
+        <f>B35+2.23*B34</f>
+        <v>1645.9812566556579</v>
       </c>
     </row>
   </sheetData>
@@ -1251,6 +1611,676 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D67"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="D50" sqref="D50"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="2">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>1</v>
+      </c>
+      <c r="B4" s="2">
+        <f>7+$B$1</f>
+        <v>5</v>
+      </c>
+      <c r="C4" s="2">
+        <v>3.8</v>
+      </c>
+      <c r="D4" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>2</v>
+      </c>
+      <c r="B5" s="2">
+        <f t="shared" ref="B5:B7" si="0">7+$B$1</f>
+        <v>5</v>
+      </c>
+      <c r="C5" s="2">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="D5" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>3</v>
+      </c>
+      <c r="B6" s="2">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="C6" s="2">
+        <v>4.3</v>
+      </c>
+      <c r="D6" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>4</v>
+      </c>
+      <c r="B7" s="2">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="C7" s="2">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="D7" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>5</v>
+      </c>
+      <c r="B8" s="2">
+        <f>8+$B$1</f>
+        <v>6</v>
+      </c>
+      <c r="C8" s="2">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="D8" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>6</v>
+      </c>
+      <c r="B9" s="2">
+        <f>8+$B$1</f>
+        <v>6</v>
+      </c>
+      <c r="C9" s="2">
+        <v>4.7</v>
+      </c>
+      <c r="D9" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>7</v>
+      </c>
+      <c r="B10" s="2">
+        <f>9+$B$1</f>
+        <v>7</v>
+      </c>
+      <c r="C10" s="2">
+        <v>5.3</v>
+      </c>
+      <c r="D10" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>8</v>
+      </c>
+      <c r="B11" s="2">
+        <f>9+$B$1</f>
+        <v>7</v>
+      </c>
+      <c r="C11" s="2">
+        <v>5.5</v>
+      </c>
+      <c r="D11" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>9</v>
+      </c>
+      <c r="B12" s="2">
+        <f>11+$B$1</f>
+        <v>9</v>
+      </c>
+      <c r="C12" s="2">
+        <v>6.9</v>
+      </c>
+      <c r="D12" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>10</v>
+      </c>
+      <c r="B13" s="2">
+        <f>10+$B$1</f>
+        <v>8</v>
+      </c>
+      <c r="C13" s="2">
+        <v>6.8</v>
+      </c>
+      <c r="D13" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>11</v>
+      </c>
+      <c r="B14" s="2">
+        <f>11+$B$1</f>
+        <v>9</v>
+      </c>
+      <c r="C14" s="2">
+        <v>7.1</v>
+      </c>
+      <c r="D14" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
+        <v>12</v>
+      </c>
+      <c r="B15" s="2">
+        <f>11+$B$1</f>
+        <v>9</v>
+      </c>
+      <c r="C15" s="2">
+        <v>7.5</v>
+      </c>
+      <c r="D15" s="2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
+        <v>13</v>
+      </c>
+      <c r="B16" s="2">
+        <f>12+$B$1</f>
+        <v>10</v>
+      </c>
+      <c r="C16" s="2">
+        <v>7.8</v>
+      </c>
+      <c r="D16" s="2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
+        <v>14</v>
+      </c>
+      <c r="B17" s="2">
+        <f t="shared" ref="B17:B18" si="1">12+$B$1</f>
+        <v>10</v>
+      </c>
+      <c r="C17" s="2">
+        <v>7.6</v>
+      </c>
+      <c r="D17" s="2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
+        <v>15</v>
+      </c>
+      <c r="B18" s="2">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="C18" s="2">
+        <v>7.9</v>
+      </c>
+      <c r="D18" s="2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
+        <v>16</v>
+      </c>
+      <c r="B19" s="2">
+        <f>13+$B$1</f>
+        <v>11</v>
+      </c>
+      <c r="C19" s="2">
+        <v>8.1</v>
+      </c>
+      <c r="D19" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
+        <v>17</v>
+      </c>
+      <c r="B20" s="2">
+        <f>13+$B$1</f>
+        <v>11</v>
+      </c>
+      <c r="C20" s="2">
+        <v>8.5</v>
+      </c>
+      <c r="D20" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
+        <v>18</v>
+      </c>
+      <c r="B21" s="2">
+        <f>14+$B$1</f>
+        <v>12</v>
+      </c>
+      <c r="C21" s="2">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="D21" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
+        <v>19</v>
+      </c>
+      <c r="B22" s="2">
+        <f>14+$B$1</f>
+        <v>12</v>
+      </c>
+      <c r="C22" s="2">
+        <v>9.6</v>
+      </c>
+      <c r="D22" s="2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="3">
+        <v>20</v>
+      </c>
+      <c r="B23" s="2">
+        <f>15+$B$1</f>
+        <v>13</v>
+      </c>
+      <c r="C23" s="2">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="D23" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="3"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B25" s="2">
+        <f>AVERAGE(B4:B23)</f>
+        <v>8.5</v>
+      </c>
+      <c r="C25" s="2">
+        <f t="shared" ref="C25:D25" si="2">AVERAGE(C4:C23)</f>
+        <v>6.6349999999999998</v>
+      </c>
+      <c r="D25" s="2">
+        <f t="shared" si="2"/>
+        <v>23.1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B26" s="2">
+        <f>SUM(B4:B23)</f>
+        <v>170</v>
+      </c>
+      <c r="C26" s="2">
+        <f t="shared" ref="C26:D26" si="3">SUM(C4:C23)</f>
+        <v>132.69999999999999</v>
+      </c>
+      <c r="D26" s="2">
+        <f t="shared" si="3"/>
+        <v>462</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="2">
+        <f t="array" ref="A29:C33">LINEST(B4:B23,C4:D23,1,1)</f>
+        <v>6.3443746784041993E-2</v>
+      </c>
+      <c r="B29" s="2">
+        <v>1.1198396480208199</v>
+      </c>
+      <c r="C29" s="2">
+        <v>-0.39568661532951044</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="2">
+        <v>3.8320857306021694E-2</v>
+      </c>
+      <c r="B30" s="2">
+        <v>0.14284570817538017</v>
+      </c>
+      <c r="C30" s="2">
+        <v>0.29671599200198046</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="2">
+        <v>0.98302890873344861</v>
+      </c>
+      <c r="B31" s="2">
+        <v>0.36163134916800704</v>
+      </c>
+      <c r="C31" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="2">
+        <v>492.35170520252626</v>
+      </c>
+      <c r="B32" s="2">
+        <v>17</v>
+      </c>
+      <c r="C32" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="2">
+        <v>128.77678704408177</v>
+      </c>
+      <c r="B33" s="2">
+        <v>2.2232129559182416</v>
+      </c>
+      <c r="C33" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="2">
+        <f>A29/A30</f>
+        <v>1.6555930958797345</v>
+      </c>
+      <c r="B34" s="2">
+        <f>B29/B30</f>
+        <v>7.8395050318622541</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B36" s="2">
+        <f>TINV(0.05, A23-2-1)</f>
+        <v>2.109815577833317</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="6"/>
+      <c r="B40" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B41" s="4">
+        <v>1</v>
+      </c>
+      <c r="C41" s="4"/>
+      <c r="D41" s="4"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B42" s="4">
+        <v>0.9900972585170138</v>
+      </c>
+      <c r="C42" s="4">
+        <v>1</v>
+      </c>
+      <c r="D42" s="4"/>
+    </row>
+    <row r="43" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B43" s="5">
+        <v>0.96003936350978625</v>
+      </c>
+      <c r="C43" s="5">
+        <v>0.95376176037489857</v>
+      </c>
+      <c r="D43" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B45" s="2">
+        <f>(B42-B43*C43)/(1-C43^2)</f>
+        <v>0.82410513216710479</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B46" s="2">
+        <f>(B43-B42*C43)/(1-C43^2)</f>
+        <v>0.1740394019200997</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B47" s="2">
+        <f>B45*B34+B46*A34</f>
+        <v>6.7487147626374808</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B50" s="2">
+        <f>B29*C25/B25</f>
+        <v>0.87413365466095772</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B51" s="2">
+        <f>A29*D25/B25</f>
+        <v>0.17241771184839649</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B54" s="2">
+        <f>(B42-B43*C43)/SQRT((1-B43^2)*(1-C43^2))</f>
+        <v>0.88505543183329682</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B55" s="2">
+        <f>(B43-B42*C43)/SQRT((1-B42^2)*(1-C43^2))</f>
+        <v>0.3726225717442137</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B56" s="2">
+        <f>(C43-B42*B43)/SQRT((1-B42^2)*(1-B43^2))</f>
+        <v>8.2197926342159153E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B59" s="2">
+        <f>SQRT(B42*B45+B43*B46)</f>
+        <v>0.99147814334631112</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B62" s="2">
+        <f>1-(A23-1)/(A23-2-1)*(1-B54^2)</f>
+        <v>0.75783171946675565</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B65" s="2">
+        <f>B54^2/(1-B54^2)*(A23-2-1)/2</f>
+        <v>30.728919572296594</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B66" s="2">
+        <f>(B59^2-B43^2)/(1-B59^2)*(A23-2-1)/1</f>
+        <v>61.45783914459269</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B67" s="2">
+        <f>(B59^2-B42^2)/(1-B59^2)*(A24-2-1)/1</f>
+        <v>-0.48370385278668826</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D20"/>
   <sheetViews>
